--- a/what_test_controls_analysis_results.xlsx
+++ b/what_test_controls_analysis_results.xlsx
@@ -449,11 +449,11 @@
     <col width="20.9" customWidth="1" min="4" max="4"/>
     <col width="37.40000000000001" customWidth="1" min="5" max="5"/>
     <col width="24.2" customWidth="1" min="6" max="6"/>
-    <col width="22" customWidth="1" min="7" max="7"/>
+    <col width="20.9" customWidth="1" min="7" max="7"/>
     <col width="13.2" customWidth="1" min="8" max="8"/>
     <col width="22" customWidth="1" min="9" max="9"/>
-    <col width="20.9" customWidth="1" min="10" max="10"/>
-    <col width="23.1" customWidth="1" min="11" max="11"/>
+    <col width="12.1" customWidth="1" min="10" max="10"/>
+    <col width="19.8" customWidth="1" min="11" max="11"/>
     <col width="20.9" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
@@ -549,13 +549,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>28.5</v>
+        <v>95</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>21.18</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10.132</v>
+        <v>12.4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -590,7 +590,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>WHO, WHEN, WHAT, WHY, ESCALATION</t>
+          <t>WHO, WHEN, WHAT</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -605,13 +605,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.500000000000001</v>
+        <v>15</v>
       </c>
       <c r="J3" t="n">
-        <v>4.032</v>
+        <v>63</v>
       </c>
       <c r="K3" t="n">
-        <v>3.6</v>
+        <v>120</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11.17341811320755</v>
+        <v>12.57341811320755</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.27341811320755</v>
+        <v>57.5780603773585</v>
       </c>
       <c r="J4" t="n">
-        <v>5.6</v>
+        <v>70</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>13.158</v>
+        <v>43.86000000000001</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>63.275</v>
+        <v>61.175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -749,16 +749,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>27.675</v>
+        <v>92.25</v>
       </c>
       <c r="J6" t="n">
-        <v>5.6</v>
+        <v>35</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -799,13 +799,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>22.05</v>
+        <v>73.49999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>22.5</v>
+        <v>75.00000000000001</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -849,16 +849,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I8" t="n">
-        <v>25.925</v>
+        <v>86.41666666666666</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4.500000000000001</v>
+        <v>15</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>13.5</v>
+        <v>44.99999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I10" t="n">
-        <v>19.04032258064516</v>
+        <v>63.46774193548386</v>
       </c>
       <c r="J10" t="n">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20.04778</v>
+        <v>21.84778</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1005,10 +1005,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.84778</v>
+        <v>49.4926</v>
       </c>
       <c r="J11" t="n">
-        <v>7.200000000000001</v>
+        <v>90</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1049,13 +1049,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>28.5</v>
+        <v>95</v>
       </c>
       <c r="H12" t="n">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I12" t="n">
-        <v>13.52571428571428</v>
+        <v>45.08571428571428</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>40.72796</v>
+        <v>43.24796</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="I13" t="n">
-        <v>17.24796</v>
+        <v>57.4932</v>
       </c>
       <c r="J13" t="n">
-        <v>6.480000000000001</v>
+        <v>90</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8.532</v>
+        <v>10.8</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>WHO, WHEN, WHAT, WHY, ESCALATION</t>
+          <t>WHO, WHEN, WHAT, ESCALATION</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4.500000000000001</v>
+        <v>15</v>
       </c>
       <c r="J14" t="n">
-        <v>4.032</v>
+        <v>63</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10.9</v>
+        <v>11.5</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1205,10 +1205,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>4.500000000000001</v>
+        <v>15</v>
       </c>
       <c r="J15" t="n">
-        <v>6.4</v>
+        <v>70</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23.1726</v>
+        <v>24.0726</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1255,10 +1255,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>15.0726</v>
+        <v>50.242</v>
       </c>
       <c r="J16" t="n">
-        <v>8.100000000000001</v>
+        <v>90</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>to ensure thresholds are set to appropriate limits and management is notified when thresholds are exceeded, System has processes to ensure thresholds are set to appropriate limits and management is notified when thresholds are exceeded.</t>
+          <t>to ensure thresholds are set to appropriate limits and manag</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Risk Management team reviews impacts to enterprise risk when new services are launched by business units through participation on the New Products Committee.</t>
+          <t>to ensure accuracy and completeness</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>to ensure all items are accounted for, On a monthly basis, inventories are performed to ensure all items are accounted for.</t>
+          <t>to ensure all items are accounted for</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>to ensure timely removal of access, The IT security team has processes to ensure timely removal of access.</t>
+          <t>to ensure timely removal of access</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>to ensure compliance with regulatory requirements, Customer communications have been reviewed prior to distribution to ensure compliance with regulatory requirements., Customer communications have been reviewed prior to distribution to ensure compliance with regulatory requirements., Customer communications have been reviewed prior to distribution to ensure compliance with regulatory requirements., Customer communications have been reviewed prior to distribution to ensure compliance with regulatory requirements.</t>
+          <t>to ensure compliance with regulatory requirements</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>to ensure all changes are properly authorized, The change management team has processes to ensure all changes are properly authorized.</t>
+          <t>to ensure all changes are properly authorized</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>to ensure all exceptions are resolved before start of business, Support has processes to ensure all exceptions are resolved before start of business.</t>
+          <t>to ensure all exceptions are resolved before start of busine</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1831,7 +1831,7 @@
     <col width="50" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
-    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="15.4" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>No WHY element detected. Add a clear statement of purpose or risk mitigation.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Control has vague purpose statements: appropriate, appropriate. Replace with specific risk mitigation or compliance objectives. This control describes a process but may not include the final action that mitigates the risk.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Control has a WHY statement focused on completeness but lacks measurable success/failure criteria. This control describes a process but may not include the final action that mitigates the risk.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>No WHY element detected. Add a clear statement of purpose or risk mitigation.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Control has a risk mitigation purpose but lacks measurable success/failure criteria. This control describes a process but may not include the final action that mitigates the risk.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>No WHY element detected. Add a clear statement of purpose or risk mitigation.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Control has a WHY statement focused on compliance but lacks measurable success/failure criteria.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2114,7 +2114,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>No WHY element detected. Add a clear statement of purpose or risk mitigation.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Control has a WHY statement focused on completeness but lacks measurable success/failure criteria.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Control has a WHY statement focused on None but lacks measurable success/failure criteria. This control describes a process but may not include the final action that mitigates the risk.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>No WHY element detected. Add a clear statement of purpose or risk mitigation.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Control has a WHY statement focused on compliance but lacks measurable success/failure criteria. This control describes a process but may not include the final action that mitigates the risk. There appears to be a mismatch in implied control types (e.g., both preventive and detective purposes mentioned).</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Control has vague purpose statements: properly, properly. Replace with specific risk mitigation or compliance objectives. This control describes a process but may not include the final action that mitigates the risk.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Control has a clear risk mitigation purpose with success criteria. This control describes a process but may not include the final action that mitigates the risk.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Control has a WHY statement focused on completeness but lacks measurable success/failure criteria. There appears to be a mismatch in implied control types (e.g., both preventive and detective purposes mentioned).</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>31.5</t>
+          <t>32.1</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7 (46.7%)</t>
+          <t>5 (33.3%)</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>15 (100.0%)</t>
+          <t>14 (93.3%)</t>
         </is>
       </c>
     </row>
